--- a/tests/data.xlsx
+++ b/tests/data.xlsx
@@ -1,31 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rjfm/WebstormProjects/Framework-webdriver-video/tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hitss\FrameworkInterno\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414A40CB-D26B-F34A-86DA-AF45E1711CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137613DB-F3D9-42A7-BDDC-6106BE62EEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>password</t>
   </si>
@@ -33,7 +45,73 @@
     <t>user</t>
   </si>
   <si>
-    <t>username</t>
+    <t>BURK8038</t>
+  </si>
+  <si>
+    <t>QA-Mexico2023</t>
+  </si>
+  <si>
+    <t>MGDA0397</t>
+  </si>
+  <si>
+    <t>Mexico2023Qa</t>
+  </si>
+  <si>
+    <t>MGIS5733</t>
+  </si>
+  <si>
+    <t>QA-TexMex14</t>
+  </si>
+  <si>
+    <t>BUJX1870</t>
+  </si>
+  <si>
+    <t>QAUat12_</t>
+  </si>
+  <si>
+    <t>MCEN6384</t>
+  </si>
+  <si>
+    <t>Mexico96</t>
+  </si>
+  <si>
+    <t>BUUW3006</t>
+  </si>
+  <si>
+    <t>QAMexico23</t>
+  </si>
+  <si>
+    <t>EHYQ2774</t>
+  </si>
+  <si>
+    <t>QA-pass2020</t>
+  </si>
+  <si>
+    <t>AUG002</t>
+  </si>
+  <si>
+    <t>Mexico2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1273	</t>
+  </si>
+  <si>
+    <t>MJBA2829</t>
+  </si>
+  <si>
+    <t>MCMG0910</t>
+  </si>
+  <si>
+    <t>MDRR4401</t>
+  </si>
+  <si>
+    <t>Maquina95</t>
+  </si>
+  <si>
+    <t>Password2022</t>
+  </si>
+  <si>
+    <t>QA-mex11</t>
   </si>
 </sst>
 </file>
@@ -49,9 +127,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -77,10 +153,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,15 +469,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -411,19 +485,142 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B3" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B98256F-C652-4DB3-BEC9-0234F45C6701}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>70351</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2">
+        <v>11098</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>707</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3">
+        <v>11098</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>11249</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <v>8034</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>5371</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <v>25096</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>13510</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>1273</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tests/data.xlsx
+++ b/tests/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hitss\FrameworkInterno\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137613DB-F3D9-42A7-BDDC-6106BE62EEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C752642-C9B7-4958-9F77-10E164DEA0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>password</t>
   </si>
@@ -472,7 +472,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -487,10 +487,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -502,10 +502,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B98256F-C652-4DB3-BEC9-0234F45C6701}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:H5"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -620,6 +620,14 @@
         <v>1273</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/data.xlsx
+++ b/tests/data.xlsx
@@ -1,55 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rjfm/WebstormProjects/Framework-webdriver-video/tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis Gerardo Olguin\Documents\Framework GlobalHitss\FrameworkInterno\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414A40CB-D26B-F34A-86DA-AF45E1711CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270E433E-02B6-4EC7-95EA-6F2BBD4DAF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13140" yWindow="2292" windowWidth="9900" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>password</t>
+    <t>Baquetas</t>
   </si>
   <si>
-    <t>user</t>
+    <t>Nintendo Switch</t>
   </si>
   <si>
-    <t>username</t>
+    <t>Audifonos Inalambricos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -77,16 +64,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -99,9 +84,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -139,7 +124,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -245,7 +230,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -387,7 +372,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -395,35 +380,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>